--- a/biology/Neurosciences/Capacité_crânienne/Capacité_crânienne.xlsx
+++ b/biology/Neurosciences/Capacité_crânienne/Capacité_crânienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_cr%C3%A2nienne</t>
+          <t>Capacité_crânienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La capacité crânienne est une mesure du volume de l'intérieur de la boîte crânienne chez les vertébrés qui ont à la fois un crâne et un cerveau. L'unité de mesure la plus utilisée est le centimètre cube.
 Certains auteurs considèrent le volume du crâne comme un indicateur de la taille du cerveau, laquelle est à son tour utilisée pour indiquer approximativement l'intelligence potentielle de l'organisme. Une plus grande capacité crânienne n'est pas bien sûr toujours l'indication d'un organisme plus intelligent, puisqu'une capacité plus grande est requise pour contrôler le corps lorsqu'il est plus grand. Par conséquent la capacité crânienne comme mètre étalon de l’intelligence a été remplacé par le rapport masse du cerveau sur masse du corps. Cette notion a elle-même été remplacée par le quotient d'encéphalisation qui tient compte du fait que le nombre de neurones nécessaires pour faire fonctionner un organe croît d'une manière plus importante qu'une stricte croissance proportionnelle liée à l'augmentation de la taille de l'organe.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_cr%C3%A2nienne</t>
+          <t>Capacité_crânienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Exemples de capacités crâniennes d'espèces actuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Orang-outans : 275 à 500 cm³
 Chimpanzés : 275 à 500 cm³
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Capacit%C3%A9_cr%C3%A2nienne</t>
+          <t>Capacité_crânienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
